--- a/public/excel/particles_template.xlsx
+++ b/public/excel/particles_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/layup/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA83B1-A169-CB49-BD7A-4EF3C27357AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32823E13-E55A-BC4B-B892-26729D21CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" activeTab="2" xr2:uid="{AA5BE1C5-677A-1240-8CF5-379F7C77C587}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{AA5BE1C5-677A-1240-8CF5-379F7C77C587}"/>
   </bookViews>
   <sheets>
     <sheet name="PesticideTesting" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
   <si>
     <t>date</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>Sample 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples: </t>
   </si>
   <si>
     <t>Analyte</t>
@@ -873,6 +870,19 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -887,19 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1326,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -1339,9 +1336,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14" customHeight="1">
-      <c r="A1" s="30">
-        <f>Headers!$B$2</f>
-        <v>0</v>
+      <c r="A1" s="30" t="str">
+        <f>IF(ISBLANK(Headers!$B$2),"",Headers!$B$2)</f>
+        <v/>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="31" t="str">
@@ -1349,99 +1346,99 @@
         <v>Date:  ()</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="42" t="str">
+      <c r="E1" s="47" t="str">
         <f>"No. W"&amp;Headers!$B$5</f>
         <v>No. W</v>
       </c>
-      <c r="F1" s="42"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14" customHeight="1">
-      <c r="A2" s="44" t="str">
+      <c r="A2" s="49" t="str">
         <f>IF(ISBLANK(Headers!$B$8),"","*"&amp;Headers!$B$8)</f>
         <v/>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43" t="str">
+      <c r="B2" s="49"/>
+      <c r="C2" s="48" t="str">
         <f>Headers!$B$20&amp;Headers!$B$7</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1">
-      <c r="A3" s="44">
-        <f>Headers!$B$9</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="str">
+      <c r="A3" s="49" t="str">
+        <f>IF(ISBLANK(Headers!$B$9),"",Headers!$B$9)</f>
+        <v/>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="48" t="str">
         <f>Headers!$B$19&amp;Headers!$B$6</f>
         <v xml:space="preserve">Source: </v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1">
-      <c r="A4" s="44" t="str">
+      <c r="A4" s="49" t="str">
         <f>Headers!$B$10&amp;", "&amp;Headers!$B$11</f>
         <v xml:space="preserve">, </v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="str">
+      <c r="B4" s="49"/>
+      <c r="C4" s="48" t="str">
         <f>Headers!$B$22&amp;Headers!$B$12</f>
         <v xml:space="preserve">No. of Samples: </v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="43" t="str">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="48" t="str">
         <f>Headers!$B$23&amp;Headers!$B$15</f>
         <v xml:space="preserve">Arival Temp: </v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1">
-      <c r="A6" s="29">
-        <f>Headers!$B$14</f>
-        <v>0</v>
+      <c r="A6" s="29" t="str">
+        <f>IF(ISBLANK(Headers!$B$14),"",Headers!$B$14)</f>
+        <v/>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="43" t="str">
+      <c r="C6" s="48" t="str">
         <f>IF(ISBLANK(Headers!$B$16),"",Headers!$B$25&amp;Headers!$B$16)</f>
         <v/>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1">
-      <c r="A7" s="44">
-        <f>Headers!$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="44"/>
+      <c r="A7" s="49" t="str">
+        <f>IF(ISBLANK(Headers!$B$13),"",Headers!$B$13)</f>
+        <v/>
+      </c>
+      <c r="B7" s="49"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1460,14 +1457,15 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="A9" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="A9" s="46" t="str">
+        <f>"Samples:  "&amp;Headers!$B$27</f>
+        <v xml:space="preserve">Samples:  </v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -1484,7 +1482,7 @@
     <row r="11" spans="1:8" ht="14" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="33" t="str">
         <f>SampleData!$F$1</f>
@@ -1499,7 +1497,7 @@
         <v>LOQ (BUD)</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1508,16 +1506,16 @@
       <c r="A12" s="18"/>
       <c r="B12" s="35"/>
       <c r="C12" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2586,7 +2584,7 @@
     </row>
     <row r="52" spans="1:6" ht="16" customHeight="1">
       <c r="A52" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2629,7 +2627,7 @@
     <row r="57" spans="1:6" ht="14" customHeight="1">
       <c r="A57" s="17"/>
       <c r="B57" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>114</v>
@@ -2643,23 +2641,23 @@
         <v>LOQ (BUD)</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A58" s="18"/>
       <c r="B58" s="35"/>
       <c r="C58" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13" customHeight="1" thickTop="1">
@@ -3712,7 +3710,7 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="A100" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13" customHeight="1"/>
@@ -3735,7 +3733,7 @@
     <row r="105" spans="1:6" ht="14" customHeight="1">
       <c r="A105" s="17"/>
       <c r="B105" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>114</v>
@@ -3749,23 +3747,23 @@
         <v>LOQ (BUD)</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A106" s="18"/>
       <c r="B106" s="35"/>
       <c r="C106" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F106" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" thickTop="1">
@@ -4272,7 +4270,7 @@
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
       <c r="A127" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -4282,7 +4280,7 @@
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
       <c r="A128" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -4292,7 +4290,7 @@
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1">
       <c r="A129" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -4302,7 +4300,7 @@
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1">
       <c r="A130" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -4320,7 +4318,7 @@
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1">
       <c r="A132" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -4330,7 +4328,7 @@
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
       <c r="A133" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -4340,7 +4338,7 @@
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1">
       <c r="A134" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -4350,7 +4348,7 @@
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1">
       <c r="A135" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -4363,23 +4361,23 @@
     <row r="138" spans="1:6" ht="12" customHeight="1"/>
     <row r="139" spans="1:6" ht="15" customHeight="1">
       <c r="A139" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
       <c r="A140" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" s="16"/>
       <c r="D140" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
@@ -4388,7 +4386,7 @@
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="D141" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
@@ -4440,7 +4438,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4450,20 +4448,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>154</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="47"/>
+        <v>120</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -4471,7 +4469,7 @@
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -4479,39 +4477,39 @@
       <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="47"/>
+        <v>128</v>
+      </c>
+      <c r="B5" s="42"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="47"/>
+        <v>119</v>
+      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="17">
       <c r="A7" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="47"/>
+        <v>127</v>
+      </c>
+      <c r="B7" s="42"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="17">
       <c r="A8" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="47"/>
+        <v>129</v>
+      </c>
+      <c r="B8" s="42"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
@@ -4519,7 +4517,7 @@
       <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
@@ -4527,7 +4525,7 @@
       <c r="A10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
@@ -4535,15 +4533,15 @@
       <c r="A11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="17">
       <c r="A12" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="47"/>
+        <v>121</v>
+      </c>
+      <c r="B12" s="42"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -4551,7 +4549,7 @@
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
@@ -4559,37 +4557,37 @@
       <c r="A14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="17">
       <c r="A15" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="47"/>
+        <v>123</v>
+      </c>
+      <c r="B15" s="42"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="17">
       <c r="A16" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="50"/>
+        <v>125</v>
+      </c>
+      <c r="B16" s="45"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="17">
       <c r="A18" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1"/>
@@ -4597,7 +4595,7 @@
     </row>
     <row r="19" spans="1:4" ht="17">
       <c r="A19" s="26"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1"/>
@@ -4605,7 +4603,7 @@
     </row>
     <row r="20" spans="1:4" ht="17">
       <c r="A20" s="26"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1"/>
@@ -4613,15 +4611,15 @@
     </row>
     <row r="21" spans="1:4" ht="17">
       <c r="A21" s="26"/>
-      <c r="B21" s="50" t="s">
-        <v>119</v>
+      <c r="B21" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="17">
       <c r="A22" s="26"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
@@ -4629,39 +4627,39 @@
     </row>
     <row r="23" spans="1:4" ht="17">
       <c r="A23" s="26"/>
-      <c r="B23" s="50" t="s">
-        <v>123</v>
+      <c r="B23" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="17">
       <c r="A24" s="26"/>
-      <c r="B24" s="50" t="s">
-        <v>125</v>
+      <c r="B24" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="17">
       <c r="A25" s="26"/>
-      <c r="B25" s="50" t="s">
-        <v>127</v>
+      <c r="B25" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="17">
       <c r="A26" s="26"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="17">
       <c r="A27" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="50"/>
+        <v>154</v>
+      </c>
+      <c r="B27" s="45"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
@@ -4690,7 +4688,7 @@
   </sheetPr>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4704,22 +4702,22 @@
     <row r="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/public/excel/particles_template.xlsx
+++ b/public/excel/particles_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/layup/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32823E13-E55A-BC4B-B892-26729D21CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA13785-3FF3-B942-A21B-72199B25A8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{AA5BE1C5-677A-1240-8CF5-379F7C77C587}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="158">
   <si>
     <t>date</t>
   </si>
@@ -503,6 +503,15 @@
   </si>
   <si>
     <t>Sample Names</t>
+  </si>
+  <si>
+    <t>LOQ(PAPER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleType </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ Name </t>
   </si>
 </sst>
 </file>
@@ -776,7 +785,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -883,6 +892,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -916,111 +932,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>145520</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>81493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1280582</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>81493</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8F6ED4-2522-B0BA-8FBA-F01A50F58E85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="145520" y="23936326"/>
-          <a:ext cx="1600729" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9BF9EC-AD42-6948-9EB5-52886635FE18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3144837" y="23596601"/>
-          <a:ext cx="1603375" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1323,8 +1234,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A103" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -1346,72 +1257,72 @@
         <v>Date:  ()</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="47" t="str">
+      <c r="E1" s="50" t="str">
         <f>"No. W"&amp;Headers!$B$5</f>
         <v>No. W</v>
       </c>
-      <c r="F1" s="47"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14" customHeight="1">
-      <c r="A2" s="49" t="str">
-        <f>IF(ISBLANK(Headers!$B$8),"","*"&amp;Headers!$B$8)</f>
+      <c r="A2" s="52" t="str">
+        <f>IF(ISBLANK(Headers!$B$8),"",Headers!$B$8)</f>
         <v/>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="48" t="str">
+      <c r="B2" s="52"/>
+      <c r="C2" s="51" t="str">
         <f>Headers!$B$20&amp;Headers!$B$7</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1">
-      <c r="A3" s="49" t="str">
+      <c r="A3" s="52" t="str">
         <f>IF(ISBLANK(Headers!$B$9),"",Headers!$B$9)</f>
         <v/>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="str">
+      <c r="B3" s="52"/>
+      <c r="C3" s="51" t="str">
         <f>Headers!$B$19&amp;Headers!$B$6</f>
         <v xml:space="preserve">Source: </v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1">
-      <c r="A4" s="49" t="str">
+      <c r="A4" s="52" t="str">
         <f>Headers!$B$10&amp;", "&amp;Headers!$B$11</f>
         <v xml:space="preserve">, </v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="48" t="str">
+      <c r="B4" s="52"/>
+      <c r="C4" s="51" t="str">
         <f>Headers!$B$22&amp;Headers!$B$12</f>
         <v xml:space="preserve">No. of Samples: </v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="48" t="str">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="51" t="str">
         <f>Headers!$B$23&amp;Headers!$B$15</f>
         <v xml:space="preserve">Arival Temp: </v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1421,11 +1332,11 @@
         <v/>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="48" t="str">
+      <c r="C6" s="51" t="str">
         <f>IF(ISBLANK(Headers!$B$16),"",Headers!$B$25&amp;Headers!$B$16)</f>
         <v/>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
         <v>151</v>
@@ -1434,11 +1345,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1">
-      <c r="A7" s="49" t="str">
+      <c r="A7" s="52" t="str">
         <f>IF(ISBLANK(Headers!$B$13),"",Headers!$B$13)</f>
         <v/>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1457,15 +1368,15 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="A9" s="46" t="str">
-        <f>"Samples:  "&amp;Headers!$B$27</f>
-        <v xml:space="preserve">Samples:  </v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="A9" s="49" t="str">
+        <f>"Samples: "&amp;Headers!$B$27</f>
+        <v xml:space="preserve">Samples: </v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -1485,16 +1396,16 @@
         <v>115</v>
       </c>
       <c r="C11" s="33" t="str">
-        <f>SampleData!$F$1</f>
+        <f>SampleData!$G$1</f>
         <v xml:space="preserve">Sample 1 </v>
       </c>
       <c r="D11" s="33" t="str">
-        <f>IF(DELTA(Headers!$B$12, 2), SampleData!$G$1, "Blank")</f>
+        <f>IF(DELTA(Headers!$B$12, 2), SampleData!$H$1, "Blank")</f>
         <v>Blank</v>
       </c>
-      <c r="E11" s="33" t="str">
-        <f>SampleData!$D$1</f>
-        <v>LOQ (BUD)</v>
+      <c r="E11" s="33">
+        <f>Headers!$B$29</f>
+        <v>0</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>134</v>
@@ -1530,11 +1441,11 @@
         <v>Abamectin</v>
       </c>
       <c r="C13" s="39" t="str">
-        <f>IF(SampleData!$F2, SampleData!$F2, "ND")</f>
+        <f>IF(SampleData!$G2, SampleData!$G2, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D13" s="39" t="str">
-        <f>IF(SampleData!$G2, SampleData!$G2, "ND")</f>
+        <f>IF(SampleData!$H2, SampleData!$H2, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E13" s="21">
@@ -1558,11 +1469,11 @@
         <v>Acephate</v>
       </c>
       <c r="C14" s="39" t="str">
-        <f>IF(SampleData!$F3, SampleData!$F3, "ND")</f>
+        <f>IF(SampleData!$G3, SampleData!$G3, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D14" s="39" t="str">
-        <f>IF(SampleData!$G3, SampleData!$G3, "ND")</f>
+        <f>IF(SampleData!$H3, SampleData!$H3, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E14" s="21">
@@ -1586,11 +1497,11 @@
         <v>Acequinocyl</v>
       </c>
       <c r="C15" s="39" t="str">
-        <f>IF(SampleData!$F4, SampleData!$F4, "ND")</f>
+        <f>IF(SampleData!$G4, SampleData!$G4, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D15" s="39" t="str">
-        <f>IF(SampleData!$G4, SampleData!$G4, "ND")</f>
+        <f>IF(SampleData!$H4, SampleData!$H4, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E15" s="21">
@@ -1614,11 +1525,11 @@
         <v>Acetamiprid</v>
       </c>
       <c r="C16" s="39" t="str">
-        <f>IF(SampleData!$F5, SampleData!$F5, "ND")</f>
+        <f>IF(SampleData!$G5, SampleData!$G5, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D16" s="39" t="str">
-        <f>IF(SampleData!$G5, SampleData!$G5, "ND")</f>
+        <f>IF(SampleData!$H5, SampleData!$H5, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E16" s="21">
@@ -1642,11 +1553,11 @@
         <v>Aldicarb</v>
       </c>
       <c r="C17" s="39" t="str">
-        <f>IF(SampleData!$F6, SampleData!$F6, "ND")</f>
+        <f>IF(SampleData!$G6, SampleData!$G6, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D17" s="39" t="str">
-        <f>IF(SampleData!$G6, SampleData!$G6, "ND")</f>
+        <f>IF(SampleData!$H6, SampleData!$H6, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E17" s="21">
@@ -1670,11 +1581,11 @@
         <v>Allethrin</v>
       </c>
       <c r="C18" s="39" t="str">
-        <f>IF(SampleData!$F7, SampleData!$F7, "ND")</f>
+        <f>IF(SampleData!$G7, SampleData!$G7, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D18" s="39" t="str">
-        <f>IF(SampleData!$G7, SampleData!$G7, "ND")</f>
+        <f>IF(SampleData!$H7, SampleData!$H7, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E18" s="21">
@@ -1698,11 +1609,11 @@
         <v>Azadirachtin</v>
       </c>
       <c r="C19" s="39" t="str">
-        <f>IF(SampleData!$F8, SampleData!$F8, "ND")</f>
+        <f>IF(SampleData!$G8, SampleData!$G8, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D19" s="39" t="str">
-        <f>IF(SampleData!$G8, SampleData!$G8, "ND")</f>
+        <f>IF(SampleData!$H8, SampleData!$H8, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E19" s="21">
@@ -1726,11 +1637,11 @@
         <v>Azoxystrobin</v>
       </c>
       <c r="C20" s="39" t="str">
-        <f>IF(SampleData!$F9, SampleData!$F9, "ND")</f>
+        <f>IF(SampleData!$G9, SampleData!$G9, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D20" s="39" t="str">
-        <f>IF(SampleData!$G9, SampleData!$G9, "ND")</f>
+        <f>IF(SampleData!$H9, SampleData!$H9, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E20" s="21">
@@ -1754,11 +1665,11 @@
         <v>Benzovindiflupyr</v>
       </c>
       <c r="C21" s="39" t="str">
-        <f>IF(SampleData!$F10, SampleData!$F10, "ND")</f>
+        <f>IF(SampleData!$G10, SampleData!$G10, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D21" s="39" t="str">
-        <f>IF(SampleData!$G10, SampleData!$G10, "ND")</f>
+        <f>IF(SampleData!$H10, SampleData!$H10, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E21" s="21">
@@ -1782,11 +1693,11 @@
         <v>Bifenazate</v>
       </c>
       <c r="C22" s="39" t="str">
-        <f>IF(SampleData!$F11, SampleData!$F11, "ND")</f>
+        <f>IF(SampleData!$G11, SampleData!$G11, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D22" s="39" t="str">
-        <f>IF(SampleData!$G11, SampleData!$G11, "ND")</f>
+        <f>IF(SampleData!$H11, SampleData!$H11, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E22" s="21">
@@ -1810,11 +1721,11 @@
         <v>Bifenthrin</v>
       </c>
       <c r="C23" s="39" t="str">
-        <f>IF(SampleData!$F12, SampleData!$F12, "ND")</f>
+        <f>IF(SampleData!$G12, SampleData!$G12, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D23" s="39" t="str">
-        <f>IF(SampleData!$G12, SampleData!$G12, "ND")</f>
+        <f>IF(SampleData!$H12, SampleData!$H12, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E23" s="21">
@@ -1838,11 +1749,11 @@
         <v>Boscalid</v>
       </c>
       <c r="C24" s="39" t="str">
-        <f>IF(SampleData!$F13, SampleData!$F13, "ND")</f>
+        <f>IF(SampleData!$G13, SampleData!$G13, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D24" s="39" t="str">
-        <f>IF(SampleData!$G13, SampleData!$G13, "ND")</f>
+        <f>IF(SampleData!$H13, SampleData!$H13, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E24" s="21">
@@ -1866,11 +1777,11 @@
         <v>Buprofezin</v>
       </c>
       <c r="C25" s="39" t="str">
-        <f>IF(SampleData!$F14, SampleData!$F14, "ND")</f>
+        <f>IF(SampleData!$G14, SampleData!$G14, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D25" s="39" t="str">
-        <f>IF(SampleData!$G14, SampleData!$G14, "ND")</f>
+        <f>IF(SampleData!$H14, SampleData!$H14, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E25" s="21">
@@ -1894,11 +1805,11 @@
         <v>Carbaryl</v>
       </c>
       <c r="C26" s="39" t="str">
-        <f>IF(SampleData!$F15, SampleData!$F15, "ND")</f>
+        <f>IF(SampleData!$G15, SampleData!$G15, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D26" s="39" t="str">
-        <f>IF(SampleData!$G15, SampleData!$G15, "ND")</f>
+        <f>IF(SampleData!$H15, SampleData!$H15, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E26" s="21">
@@ -1922,11 +1833,11 @@
         <v>Carbofuran</v>
       </c>
       <c r="C27" s="39" t="str">
-        <f>IF(SampleData!$F16, SampleData!$F16, "ND")</f>
+        <f>IF(SampleData!$G16, SampleData!$G16, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D27" s="39" t="str">
-        <f>IF(SampleData!$G16, SampleData!$G16, "ND")</f>
+        <f>IF(SampleData!$H16, SampleData!$H16, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E27" s="21">
@@ -1950,11 +1861,11 @@
         <v>Chlorantraniliprole</v>
       </c>
       <c r="C28" s="39" t="str">
-        <f>IF(SampleData!$F17, SampleData!$F17, "ND")</f>
+        <f>IF(SampleData!$G17, SampleData!$G17, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D28" s="39" t="str">
-        <f>IF(SampleData!$G17, SampleData!$G17, "ND")</f>
+        <f>IF(SampleData!$H17, SampleData!$H17, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E28" s="21">
@@ -1978,11 +1889,11 @@
         <v>Chlorphenapyr</v>
       </c>
       <c r="C29" s="39" t="str">
-        <f>IF(SampleData!$F18, SampleData!$F18, "ND")</f>
+        <f>IF(SampleData!$G18, SampleData!$G18, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D29" s="39" t="str">
-        <f>IF(SampleData!$G18, SampleData!$G18, "ND")</f>
+        <f>IF(SampleData!$H18, SampleData!$H18, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E29" s="21">
@@ -2006,11 +1917,11 @@
         <v>Chlorpyrifos</v>
       </c>
       <c r="C30" s="39" t="str">
-        <f>IF(SampleData!$F19, SampleData!$F19, "ND")</f>
+        <f>IF(SampleData!$G19, SampleData!$G19, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D30" s="39" t="str">
-        <f>IF(SampleData!$G19, SampleData!$G19, "ND")</f>
+        <f>IF(SampleData!$H19, SampleData!$H19, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E30" s="21">
@@ -2034,11 +1945,11 @@
         <v>Clofentezine</v>
       </c>
       <c r="C31" s="39" t="str">
-        <f>IF(SampleData!$F20, SampleData!$F20, "ND")</f>
+        <f>IF(SampleData!$G20, SampleData!$G20, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D31" s="39" t="str">
-        <f>IF(SampleData!$G20, SampleData!$G20, "ND")</f>
+        <f>IF(SampleData!$H20, SampleData!$H20, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E31" s="21">
@@ -2062,11 +1973,11 @@
         <v>Clothianidin</v>
       </c>
       <c r="C32" s="39" t="str">
-        <f>IF(SampleData!$F21, SampleData!$F21, "ND")</f>
+        <f>IF(SampleData!$G21, SampleData!$G21, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D32" s="39" t="str">
-        <f>IF(SampleData!$G21, SampleData!$G21, "ND")</f>
+        <f>IF(SampleData!$H21, SampleData!$H21, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E32" s="21">
@@ -2090,11 +2001,11 @@
         <v>Coumaphos</v>
       </c>
       <c r="C33" s="39" t="str">
-        <f>IF(SampleData!$F22, SampleData!$F22, "ND")</f>
+        <f>IF(SampleData!$G22, SampleData!$G22, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D33" s="39" t="str">
-        <f>IF(SampleData!$G22, SampleData!$G22, "ND")</f>
+        <f>IF(SampleData!$H22, SampleData!$H22, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E33" s="21">
@@ -2118,11 +2029,11 @@
         <v>Cyantraniliprole</v>
       </c>
       <c r="C34" s="39" t="str">
-        <f>IF(SampleData!$F23, SampleData!$F23, "ND")</f>
+        <f>IF(SampleData!$G23, SampleData!$G23, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D34" s="39" t="str">
-        <f>IF(SampleData!$G23, SampleData!$G23, "ND")</f>
+        <f>IF(SampleData!$H23, SampleData!$H23, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E34" s="21">
@@ -2146,11 +2057,11 @@
         <v>Cyfluthrin</v>
       </c>
       <c r="C35" s="39" t="str">
-        <f>IF(SampleData!$F24, SampleData!$F24, "ND")</f>
+        <f>IF(SampleData!$G24, SampleData!$G24, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D35" s="39" t="str">
-        <f>IF(SampleData!$G24, SampleData!$G24, "ND")</f>
+        <f>IF(SampleData!$H24, SampleData!$H24, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E35" s="21">
@@ -2174,11 +2085,11 @@
         <v>Cypermethrin</v>
       </c>
       <c r="C36" s="39" t="str">
-        <f>IF(SampleData!$F25, SampleData!$F25, "ND")</f>
+        <f>IF(SampleData!$G25, SampleData!$G25, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D36" s="39" t="str">
-        <f>IF(SampleData!$G25, SampleData!$G25, "ND")</f>
+        <f>IF(SampleData!$H25, SampleData!$H25, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E36" s="21">
@@ -2202,11 +2113,11 @@
         <v>Cyprodinil</v>
       </c>
       <c r="C37" s="39" t="str">
-        <f>IF(SampleData!$F26, SampleData!$F26, "ND")</f>
+        <f>IF(SampleData!$G26, SampleData!$G26, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D37" s="39" t="str">
-        <f>IF(SampleData!$G26, SampleData!$G26, "ND")</f>
+        <f>IF(SampleData!$H26, SampleData!$H26, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E37" s="21">
@@ -2230,11 +2141,11 @@
         <v>Daminozide</v>
       </c>
       <c r="C38" s="39" t="str">
-        <f>IF(SampleData!$F27, SampleData!$F27, "ND")</f>
+        <f>IF(SampleData!$G27, SampleData!$G27, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D38" s="39" t="str">
-        <f>IF(SampleData!$G27, SampleData!$G27, "ND")</f>
+        <f>IF(SampleData!$H27, SampleData!$H27, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E38" s="21">
@@ -2258,11 +2169,11 @@
         <v>Deltamethrin</v>
       </c>
       <c r="C39" s="39" t="str">
-        <f>IF(SampleData!$F28, SampleData!$F28, "ND")</f>
+        <f>IF(SampleData!$G28, SampleData!$G28, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D39" s="39" t="str">
-        <f>IF(SampleData!$G28, SampleData!$G28, "ND")</f>
+        <f>IF(SampleData!$H28, SampleData!$H28, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E39" s="21">
@@ -2286,11 +2197,11 @@
         <v>Diazinon</v>
       </c>
       <c r="C40" s="39" t="str">
-        <f>IF(SampleData!$F29, SampleData!$F29, "ND")</f>
+        <f>IF(SampleData!$G29, SampleData!$G29, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D40" s="39" t="str">
-        <f>IF(SampleData!$G29, SampleData!$G29, "ND")</f>
+        <f>IF(SampleData!$H29, SampleData!$H29, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E40" s="21">
@@ -2314,11 +2225,11 @@
         <v>Dichlorvos</v>
       </c>
       <c r="C41" s="39" t="str">
-        <f>IF(SampleData!$F30, SampleData!$F30, "ND")</f>
+        <f>IF(SampleData!$G30, SampleData!$G30, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D41" s="39" t="str">
-        <f>IF(SampleData!$G30, SampleData!$G30, "ND")</f>
+        <f>IF(SampleData!$H30, SampleData!$H30, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E41" s="21">
@@ -2342,11 +2253,11 @@
         <v>Dimethoate</v>
       </c>
       <c r="C42" s="39" t="str">
-        <f>IF(SampleData!$F31, SampleData!$F31, "ND")</f>
+        <f>IF(SampleData!$G31, SampleData!$G31, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D42" s="39" t="str">
-        <f>IF(SampleData!$G31, SampleData!$G31, "ND")</f>
+        <f>IF(SampleData!$H31, SampleData!$H31, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E42" s="21">
@@ -2370,11 +2281,11 @@
         <v>Dimethomorph</v>
       </c>
       <c r="C43" s="39" t="str">
-        <f>IF(SampleData!$F32, SampleData!$F32, "ND")</f>
+        <f>IF(SampleData!$G32, SampleData!$G32, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D43" s="39" t="str">
-        <f>IF(SampleData!$G32, SampleData!$G32, "ND")</f>
+        <f>IF(SampleData!$H32, SampleData!$H32, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E43" s="21">
@@ -2398,11 +2309,11 @@
         <v>Dinotefuran</v>
       </c>
       <c r="C44" s="39" t="str">
-        <f>IF(SampleData!$F33, SampleData!$F33, "ND")</f>
+        <f>IF(SampleData!$G33, SampleData!$G33, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D44" s="39" t="str">
-        <f>IF(SampleData!$G33, SampleData!$G33, "ND")</f>
+        <f>IF(SampleData!$H33, SampleData!$H33, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E44" s="21">
@@ -2426,11 +2337,11 @@
         <v>Dodemorph</v>
       </c>
       <c r="C45" s="39" t="str">
-        <f>IF(SampleData!$F34, SampleData!$F34, "ND")</f>
+        <f>IF(SampleData!$G34, SampleData!$G34, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D45" s="39" t="str">
-        <f>IF(SampleData!$G34, SampleData!$G34, "ND")</f>
+        <f>IF(SampleData!$H34, SampleData!$H34, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E45" s="21">
@@ -2454,11 +2365,11 @@
         <v>Endosulfan-alpha</v>
       </c>
       <c r="C46" s="39" t="str">
-        <f>IF(SampleData!$F35, SampleData!$F35, "ND")</f>
+        <f>IF(SampleData!$G35, SampleData!$G35, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D46" s="39" t="str">
-        <f>IF(SampleData!$G35, SampleData!$G35, "ND")</f>
+        <f>IF(SampleData!$H35, SampleData!$H35, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E46" s="21">
@@ -2480,11 +2391,11 @@
         <v>Endosulfan-beta</v>
       </c>
       <c r="C47" s="39" t="str">
-        <f>IF(SampleData!$F36, SampleData!$F36, "ND")</f>
+        <f>IF(SampleData!$G36, SampleData!$G36, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D47" s="39" t="str">
-        <f>IF(SampleData!$G36, SampleData!$G36, "ND")</f>
+        <f>IF(SampleData!$H36, SampleData!$H36, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E47" s="21">
@@ -2506,11 +2417,11 @@
         <v>Endosulfan-sulfate</v>
       </c>
       <c r="C48" s="39" t="str">
-        <f>IF(SampleData!$F37, SampleData!$F37, "ND")</f>
+        <f>IF(SampleData!$G37, SampleData!$G37, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D48" s="39" t="str">
-        <f>IF(SampleData!$G37, SampleData!$G37, "ND")</f>
+        <f>IF(SampleData!$H37, SampleData!$H37, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E48" s="21">
@@ -2532,11 +2443,11 @@
         <v>Ethoprophos</v>
       </c>
       <c r="C49" s="39" t="str">
-        <f>IF(SampleData!$F38, SampleData!$F38, "ND")</f>
+        <f>IF(SampleData!$G38, SampleData!$G38, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D49" s="39" t="str">
-        <f>IF(SampleData!$G38, SampleData!$G38, "ND")</f>
+        <f>IF(SampleData!$H38, SampleData!$H38, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E49" s="21">
@@ -2558,11 +2469,11 @@
         <v>Etofenprox</v>
       </c>
       <c r="C50" s="39" t="str">
-        <f>IF(SampleData!$F39, SampleData!$F39, "ND")</f>
+        <f>IF(SampleData!$G39, SampleData!$G39, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D50" s="39" t="str">
-        <f>IF(SampleData!$G39, SampleData!$G39, "ND")</f>
+        <f>IF(SampleData!$H39, SampleData!$H39, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E50" s="21">
@@ -2636,9 +2547,9 @@
         <f>IF(DELTA(Headers!$B$12, 2), "Sample 2", "Blank")</f>
         <v>Blank</v>
       </c>
-      <c r="E57" s="33" t="str">
-        <f>SampleData!$D$1</f>
-        <v>LOQ (BUD)</v>
+      <c r="E57" s="33">
+        <f>Headers!$B$29</f>
+        <v>0</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>134</v>
@@ -2670,11 +2581,11 @@
         <v>Etoxazole</v>
       </c>
       <c r="C59" s="40" t="str">
-        <f>IF(SampleData!$F40, SampleData!$F40, "ND")</f>
+        <f>IF(SampleData!$G40, SampleData!$G40, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D59" s="40" t="str">
-        <f>IF(SampleData!$G40, SampleData!$G40, "ND")</f>
+        <f>IF(SampleData!$H40, SampleData!$H40, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E59" s="21">
@@ -2696,11 +2607,11 @@
         <v>Etridiazole</v>
       </c>
       <c r="C60" s="40" t="str">
-        <f>IF(SampleData!$F41, SampleData!$F41, "ND")</f>
+        <f>IF(SampleData!$G41, SampleData!$G41, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D60" s="40" t="str">
-        <f>IF(SampleData!$G41, SampleData!$G41, "ND")</f>
+        <f>IF(SampleData!$H41, SampleData!$H41, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E60" s="21">
@@ -2722,11 +2633,11 @@
         <v>Fenoxycarb</v>
       </c>
       <c r="C61" s="40" t="str">
-        <f>IF(SampleData!$F42, SampleData!$F42, "ND")</f>
+        <f>IF(SampleData!$G42, SampleData!$G42, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D61" s="40" t="str">
-        <f>IF(SampleData!$G42, SampleData!$G42, "ND")</f>
+        <f>IF(SampleData!$H42, SampleData!$H42, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E61" s="21">
@@ -2748,11 +2659,11 @@
         <v>Fenpyroximate</v>
       </c>
       <c r="C62" s="40" t="str">
-        <f>IF(SampleData!$F43, SampleData!$F43, "ND")</f>
+        <f>IF(SampleData!$G43, SampleData!$G43, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D62" s="40" t="str">
-        <f>IF(SampleData!$G43, SampleData!$G43, "ND")</f>
+        <f>IF(SampleData!$H43, SampleData!$H43, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E62" s="21">
@@ -2774,11 +2685,11 @@
         <v>Fensulfothion</v>
       </c>
       <c r="C63" s="40" t="str">
-        <f>IF(SampleData!$F44, SampleData!$F44, "ND")</f>
+        <f>IF(SampleData!$G44, SampleData!$G44, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D63" s="40" t="str">
-        <f>IF(SampleData!$G44, SampleData!$G44, "ND")</f>
+        <f>IF(SampleData!$H44, SampleData!$H44, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E63" s="21">
@@ -2800,11 +2711,11 @@
         <v>Fenthion</v>
       </c>
       <c r="C64" s="40" t="str">
-        <f>IF(SampleData!$F45, SampleData!$F45, "ND")</f>
+        <f>IF(SampleData!$G45, SampleData!$G45, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D64" s="40" t="str">
-        <f>IF(SampleData!$G45, SampleData!$G45, "ND")</f>
+        <f>IF(SampleData!$H45, SampleData!$H45, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E64" s="21">
@@ -2826,11 +2737,11 @@
         <v>Fenvalerate</v>
       </c>
       <c r="C65" s="40" t="str">
-        <f>IF(SampleData!$F46, SampleData!$F46, "ND")</f>
+        <f>IF(SampleData!$G46, SampleData!$G46, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D65" s="40" t="str">
-        <f>IF(SampleData!$G46, SampleData!$G46, "ND")</f>
+        <f>IF(SampleData!$H46, SampleData!$H46, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E65" s="21">
@@ -2852,11 +2763,11 @@
         <v>Fipronil</v>
       </c>
       <c r="C66" s="40" t="str">
-        <f>IF(SampleData!$F47, SampleData!$F47, "ND")</f>
+        <f>IF(SampleData!$G47, SampleData!$G47, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D66" s="40" t="str">
-        <f>IF(SampleData!$G47, SampleData!$G47, "ND")</f>
+        <f>IF(SampleData!$H47, SampleData!$H47, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E66" s="21">
@@ -2878,11 +2789,11 @@
         <v>Flonicamid</v>
       </c>
       <c r="C67" s="40" t="str">
-        <f>IF(SampleData!$F48, SampleData!$F48, "ND")</f>
+        <f>IF(SampleData!$G48, SampleData!$G48, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D67" s="40" t="str">
-        <f>IF(SampleData!$G48, SampleData!$G48, "ND")</f>
+        <f>IF(SampleData!$H48, SampleData!$H48, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E67" s="21">
@@ -2904,11 +2815,11 @@
         <v>Fludioxonil</v>
       </c>
       <c r="C68" s="40" t="str">
-        <f>IF(SampleData!$F49, SampleData!$F49, "ND")</f>
+        <f>IF(SampleData!$G49, SampleData!$G49, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D68" s="40" t="str">
-        <f>IF(SampleData!$G49, SampleData!$G49, "ND")</f>
+        <f>IF(SampleData!$H49, SampleData!$H49, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E68" s="21">
@@ -2930,11 +2841,11 @@
         <v>Fluopyram</v>
       </c>
       <c r="C69" s="40" t="str">
-        <f>IF(SampleData!$F50, SampleData!$F50, "ND")</f>
+        <f>IF(SampleData!$G50, SampleData!$G50, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D69" s="40" t="str">
-        <f>IF(SampleData!$G50, SampleData!$G50, "ND")</f>
+        <f>IF(SampleData!$H50, SampleData!$H50, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E69" s="21">
@@ -2956,11 +2867,11 @@
         <v>Hexythiazox</v>
       </c>
       <c r="C70" s="40" t="str">
-        <f>IF(SampleData!$F51, SampleData!$F51, "ND")</f>
+        <f>IF(SampleData!$G51, SampleData!$G51, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D70" s="40" t="str">
-        <f>IF(SampleData!$G51, SampleData!$G51, "ND")</f>
+        <f>IF(SampleData!$H51, SampleData!$H51, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E70" s="21">
@@ -2982,11 +2893,11 @@
         <v>Imazalil</v>
       </c>
       <c r="C71" s="40" t="str">
-        <f>IF(SampleData!$F52, SampleData!$F52, "ND")</f>
+        <f>IF(SampleData!$G52, SampleData!$G52, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D71" s="40" t="str">
-        <f>IF(SampleData!$G52, SampleData!$G52, "ND")</f>
+        <f>IF(SampleData!$H52, SampleData!$H52, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E71" s="21">
@@ -3008,11 +2919,11 @@
         <v>Imidacloprid</v>
       </c>
       <c r="C72" s="40" t="str">
-        <f>IF(SampleData!$F53, SampleData!$F53, "ND")</f>
+        <f>IF(SampleData!$G53, SampleData!$G53, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D72" s="40" t="str">
-        <f>IF(SampleData!$G53, SampleData!$G53, "ND")</f>
+        <f>IF(SampleData!$H53, SampleData!$H53, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E72" s="21">
@@ -3034,11 +2945,11 @@
         <v>Iprodione</v>
       </c>
       <c r="C73" s="40" t="str">
-        <f>IF(SampleData!$F54, SampleData!$F54, "ND")</f>
+        <f>IF(SampleData!$G54, SampleData!$G54, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D73" s="40" t="str">
-        <f>IF(SampleData!$G54, SampleData!$G54, "ND")</f>
+        <f>IF(SampleData!$H54, SampleData!$H54, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E73" s="21">
@@ -3060,11 +2971,11 @@
         <v>Kinoprene</v>
       </c>
       <c r="C74" s="40" t="str">
-        <f>IF(SampleData!$F55, SampleData!$F55, "ND")</f>
+        <f>IF(SampleData!$G55, SampleData!$G55, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D74" s="40" t="str">
-        <f>IF(SampleData!$G55, SampleData!$G55, "ND")</f>
+        <f>IF(SampleData!$H55, SampleData!$H55, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E74" s="21">
@@ -3086,11 +2997,11 @@
         <v>Kresoxim-methyl</v>
       </c>
       <c r="C75" s="40" t="str">
-        <f>IF(SampleData!$F56, SampleData!$F56, "ND")</f>
+        <f>IF(SampleData!$G56, SampleData!$G56, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D75" s="40" t="str">
-        <f>IF(SampleData!$G56, SampleData!$G56, "ND")</f>
+        <f>IF(SampleData!$H56, SampleData!$H56, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E75" s="21">
@@ -3112,11 +3023,11 @@
         <v>Malathion</v>
       </c>
       <c r="C76" s="40" t="str">
-        <f>IF(SampleData!$F57, SampleData!$F57, "ND")</f>
+        <f>IF(SampleData!$G57, SampleData!$G57, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D76" s="40" t="str">
-        <f>IF(SampleData!$G57, SampleData!$G57, "ND")</f>
+        <f>IF(SampleData!$H57, SampleData!$H57, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E76" s="21">
@@ -3138,11 +3049,11 @@
         <v>Metalaxyl</v>
       </c>
       <c r="C77" s="40" t="str">
-        <f>IF(SampleData!$F58, SampleData!$F58, "ND")</f>
+        <f>IF(SampleData!$G58, SampleData!$G58, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D77" s="40" t="str">
-        <f>IF(SampleData!$G58, SampleData!$G58, "ND")</f>
+        <f>IF(SampleData!$H58, SampleData!$H58, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E77" s="21">
@@ -3164,11 +3075,11 @@
         <v>Methiocarb</v>
       </c>
       <c r="C78" s="40" t="str">
-        <f>IF(SampleData!$F59, SampleData!$F59, "ND")</f>
+        <f>IF(SampleData!$G59, SampleData!$G59, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D78" s="40" t="str">
-        <f>IF(SampleData!$G59, SampleData!$G59, "ND")</f>
+        <f>IF(SampleData!$H59, SampleData!$H59, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E78" s="21">
@@ -3190,11 +3101,11 @@
         <v>Methomyl</v>
       </c>
       <c r="C79" s="40" t="str">
-        <f>IF(SampleData!$F60, SampleData!$F60, "ND")</f>
+        <f>IF(SampleData!$G60, SampleData!$G60, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D79" s="40" t="str">
-        <f>IF(SampleData!$G60, SampleData!$G60, "ND")</f>
+        <f>IF(SampleData!$H60, SampleData!$H60, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E79" s="21">
@@ -3216,11 +3127,11 @@
         <v>Methoprene</v>
       </c>
       <c r="C80" s="40" t="str">
-        <f>IF(SampleData!$F61, SampleData!$F61, "ND")</f>
+        <f>IF(SampleData!$G61, SampleData!$G61, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D80" s="40" t="str">
-        <f>IF(SampleData!$G61, SampleData!$G61, "ND")</f>
+        <f>IF(SampleData!$H61, SampleData!$H61, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E80" s="21">
@@ -3242,11 +3153,11 @@
         <v>Methyl parathion</v>
       </c>
       <c r="C81" s="40" t="str">
-        <f>IF(SampleData!$F62, SampleData!$F62, "ND")</f>
+        <f>IF(SampleData!$G62, SampleData!$G62, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D81" s="40" t="str">
-        <f>IF(SampleData!$G62, SampleData!$G62, "ND")</f>
+        <f>IF(SampleData!$H62, SampleData!$H62, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E81" s="21">
@@ -3268,11 +3179,11 @@
         <v>Mevinphos</v>
       </c>
       <c r="C82" s="40" t="str">
-        <f>IF(SampleData!$F63, SampleData!$F63, "ND")</f>
+        <f>IF(SampleData!$G63, SampleData!$G63, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D82" s="40" t="str">
-        <f>IF(SampleData!$G63, SampleData!$G63, "ND")</f>
+        <f>IF(SampleData!$H63, SampleData!$H63, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E82" s="21">
@@ -3294,11 +3205,11 @@
         <v>MGK-264</v>
       </c>
       <c r="C83" s="40" t="str">
-        <f>IF(SampleData!$F64, SampleData!$F64, "ND")</f>
+        <f>IF(SampleData!$G64, SampleData!$G64, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D83" s="40" t="str">
-        <f>IF(SampleData!$G64, SampleData!$G64, "ND")</f>
+        <f>IF(SampleData!$H64, SampleData!$H64, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E83" s="21">
@@ -3320,11 +3231,11 @@
         <v>Myclobutanil</v>
       </c>
       <c r="C84" s="40" t="str">
-        <f>IF(SampleData!$F65, SampleData!$F65, "ND")</f>
+        <f>IF(SampleData!$G65, SampleData!$G65, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D84" s="40" t="str">
-        <f>IF(SampleData!$G65, SampleData!$G65, "ND")</f>
+        <f>IF(SampleData!$H65, SampleData!$H65, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E84" s="21">
@@ -3346,11 +3257,11 @@
         <v>Naled (Dibrom)</v>
       </c>
       <c r="C85" s="40" t="str">
-        <f>IF(SampleData!$F66, SampleData!$F66, "ND")</f>
+        <f>IF(SampleData!$G66, SampleData!$G66, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D85" s="40" t="str">
-        <f>IF(SampleData!$G66, SampleData!$G66, "ND")</f>
+        <f>IF(SampleData!$H66, SampleData!$H66, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E85" s="21">
@@ -3372,11 +3283,11 @@
         <v>Novaluron</v>
       </c>
       <c r="C86" s="40" t="str">
-        <f>IF(SampleData!$F67, SampleData!$F67, "ND")</f>
+        <f>IF(SampleData!$G67, SampleData!$G67, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D86" s="40" t="str">
-        <f>IF(SampleData!$G67, SampleData!$G67, "ND")</f>
+        <f>IF(SampleData!$H67, SampleData!$H67, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E86" s="21">
@@ -3398,11 +3309,11 @@
         <v>Oxamyl</v>
       </c>
       <c r="C87" s="40" t="str">
-        <f>IF(SampleData!$F68, SampleData!$F68, "ND")</f>
+        <f>IF(SampleData!$G68, SampleData!$G68, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D87" s="40" t="str">
-        <f>IF(SampleData!$G68, SampleData!$G68, "ND")</f>
+        <f>IF(SampleData!$H68, SampleData!$H68, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E87" s="21">
@@ -3424,11 +3335,11 @@
         <v>Paclobutrazol</v>
       </c>
       <c r="C88" s="40" t="str">
-        <f>IF(SampleData!$F69, SampleData!$F69, "ND")</f>
+        <f>IF(SampleData!$G69, SampleData!$G69, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D88" s="40" t="str">
-        <f>IF(SampleData!$G69, SampleData!$G69, "ND")</f>
+        <f>IF(SampleData!$H69, SampleData!$H69, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E88" s="21">
@@ -3450,11 +3361,11 @@
         <v>Permethrin</v>
       </c>
       <c r="C89" s="40" t="str">
-        <f>IF(SampleData!$F70, SampleData!$F70, "ND")</f>
+        <f>IF(SampleData!$G70, SampleData!$G70, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D89" s="40" t="str">
-        <f>IF(SampleData!$G70, SampleData!$G70, "ND")</f>
+        <f>IF(SampleData!$H70, SampleData!$H70, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E89" s="21">
@@ -3476,11 +3387,11 @@
         <v>Phenothrin</v>
       </c>
       <c r="C90" s="40" t="str">
-        <f>IF(SampleData!$F71, SampleData!$F71, "ND")</f>
+        <f>IF(SampleData!$G71, SampleData!$G71, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D90" s="40" t="str">
-        <f>IF(SampleData!$G71, SampleData!$G71, "ND")</f>
+        <f>IF(SampleData!$H71, SampleData!$H71, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E90" s="21">
@@ -3502,11 +3413,11 @@
         <v>Phosmet</v>
       </c>
       <c r="C91" s="40" t="str">
-        <f>IF(SampleData!$F72, SampleData!$F72, "ND")</f>
+        <f>IF(SampleData!$G72, SampleData!$G72, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D91" s="40" t="str">
-        <f>IF(SampleData!$G72, SampleData!$G72, "ND")</f>
+        <f>IF(SampleData!$H72, SampleData!$H72, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E91" s="21">
@@ -3528,11 +3439,11 @@
         <v>Piperonyl butoxide</v>
       </c>
       <c r="C92" s="40" t="str">
-        <f>IF(SampleData!$F73, SampleData!$F73, "ND")</f>
+        <f>IF(SampleData!$G73, SampleData!$G73, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D92" s="40" t="str">
-        <f>IF(SampleData!$G73, SampleData!$G73, "ND")</f>
+        <f>IF(SampleData!$H73, SampleData!$H73, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E92" s="21">
@@ -3554,11 +3465,11 @@
         <v>Pirimicarb</v>
       </c>
       <c r="C93" s="40" t="str">
-        <f>IF(SampleData!$F74, SampleData!$F74, "ND")</f>
+        <f>IF(SampleData!$G74, SampleData!$G74, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D93" s="40" t="str">
-        <f>IF(SampleData!$G74, SampleData!$G74, "ND")</f>
+        <f>IF(SampleData!$H74, SampleData!$H74, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E93" s="21">
@@ -3580,11 +3491,11 @@
         <v>Prallethrin</v>
       </c>
       <c r="C94" s="40" t="str">
-        <f>IF(SampleData!$F75, SampleData!$F75, "ND")</f>
+        <f>IF(SampleData!$G75, SampleData!$G75, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D94" s="40" t="str">
-        <f>IF(SampleData!$G75, SampleData!$G75, "ND")</f>
+        <f>IF(SampleData!$H75, SampleData!$H75, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E94" s="21">
@@ -3606,11 +3517,11 @@
         <v>Propiconazole</v>
       </c>
       <c r="C95" s="40" t="str">
-        <f>IF(SampleData!$F76, SampleData!$F76, "ND")</f>
+        <f>IF(SampleData!$G76, SampleData!$G76, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D95" s="40" t="str">
-        <f>IF(SampleData!$G76, SampleData!$G76, "ND")</f>
+        <f>IF(SampleData!$H76, SampleData!$H76, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E95" s="21">
@@ -3632,11 +3543,11 @@
         <v>Propoxur</v>
       </c>
       <c r="C96" s="40" t="str">
-        <f>IF(SampleData!$F77, SampleData!$F77, "ND")</f>
+        <f>IF(SampleData!$G77, SampleData!$G77, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D96" s="40" t="str">
-        <f>IF(SampleData!$G77, SampleData!$G77, "ND")</f>
+        <f>IF(SampleData!$H77, SampleData!$H77, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E96" s="21">
@@ -3658,11 +3569,11 @@
         <v>Pyraclostrobin</v>
       </c>
       <c r="C97" s="40" t="str">
-        <f>IF(SampleData!$F78, SampleData!$F78, "ND")</f>
+        <f>IF(SampleData!$G78, SampleData!$G78, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D97" s="40" t="str">
-        <f>IF(SampleData!$G78, SampleData!$G78, "ND")</f>
+        <f>IF(SampleData!$H78, SampleData!$H78, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E97" s="21">
@@ -3684,11 +3595,11 @@
         <v>Pyrethrin I</v>
       </c>
       <c r="C98" s="40" t="str">
-        <f>IF(SampleData!$F79, SampleData!$F79, "ND")</f>
+        <f>IF(SampleData!$G79, SampleData!$G79, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D98" s="40" t="str">
-        <f>IF(SampleData!$G79, SampleData!$G79, "ND")</f>
+        <f>IF(SampleData!$H79, SampleData!$H79, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E98" s="21">
@@ -3742,9 +3653,9 @@
         <f>IF(DELTA(Headers!$B$12, 2), "Sample 2", "Blank")</f>
         <v>Blank</v>
       </c>
-      <c r="E105" s="33" t="str">
-        <f>SampleData!$D$1</f>
-        <v>LOQ (BUD)</v>
+      <c r="E105" s="33">
+        <f>Headers!$B$29</f>
+        <v>0</v>
       </c>
       <c r="F105" s="34" t="s">
         <v>134</v>
@@ -3776,11 +3687,11 @@
         <v>Pyrethrin II</v>
       </c>
       <c r="C107" s="40" t="str">
-        <f>IF(SampleData!$F80, SampleData!$F80, "ND")</f>
+        <f>IF(SampleData!$G80, SampleData!$G80, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D107" s="40" t="str">
-        <f>IF(SampleData!$G80, SampleData!$G80, "ND")</f>
+        <f>IF(SampleData!$H80, SampleData!$H80, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E107" s="21">
@@ -3802,11 +3713,11 @@
         <v>Pyridaben</v>
       </c>
       <c r="C108" s="40" t="str">
-        <f>IF(SampleData!$F81, SampleData!$F81, "ND")</f>
+        <f>IF(SampleData!$G81, SampleData!$G81, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D108" s="40" t="str">
-        <f>IF(SampleData!$G81, SampleData!$G81, "ND")</f>
+        <f>IF(SampleData!$H81, SampleData!$H81, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E108" s="21">
@@ -3828,11 +3739,11 @@
         <v>Quintozene</v>
       </c>
       <c r="C109" s="40" t="str">
-        <f>IF(SampleData!$F82, SampleData!$F82, "ND")</f>
+        <f>IF(SampleData!$G82, SampleData!$G82, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D109" s="40" t="str">
-        <f>IF(SampleData!$G82, SampleData!$G82, "ND")</f>
+        <f>IF(SampleData!$H82, SampleData!$H82, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E109" s="21">
@@ -3854,11 +3765,11 @@
         <v>Resmethrin</v>
       </c>
       <c r="C110" s="40" t="str">
-        <f>IF(SampleData!$F83, SampleData!$F83, "ND")</f>
+        <f>IF(SampleData!$G83, SampleData!$G83, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D110" s="40" t="str">
-        <f>IF(SampleData!$G83, SampleData!$G83, "ND")</f>
+        <f>IF(SampleData!$H83, SampleData!$H83, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E110" s="21">
@@ -3880,11 +3791,11 @@
         <v>Spinetoram</v>
       </c>
       <c r="C111" s="40" t="str">
-        <f>IF(SampleData!$F84, SampleData!$F84, "ND")</f>
+        <f>IF(SampleData!$G84, SampleData!$G84, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D111" s="40" t="str">
-        <f>IF(SampleData!$G84, SampleData!$G84, "ND")</f>
+        <f>IF(SampleData!$H84, SampleData!$H84, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E111" s="21">
@@ -3906,11 +3817,11 @@
         <v>Spinosad</v>
       </c>
       <c r="C112" s="40" t="str">
-        <f>IF(SampleData!$F85, SampleData!$F85, "ND")</f>
+        <f>IF(SampleData!$G85, SampleData!$G85, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D112" s="40" t="str">
-        <f>IF(SampleData!$G85, SampleData!$G85, "ND")</f>
+        <f>IF(SampleData!$H85, SampleData!$H85, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E112" s="21">
@@ -3932,11 +3843,11 @@
         <v>Spirodiclofen</v>
       </c>
       <c r="C113" s="40" t="str">
-        <f>IF(SampleData!$F86, SampleData!$F86, "ND")</f>
+        <f>IF(SampleData!$G86, SampleData!$G86, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D113" s="40" t="str">
-        <f>IF(SampleData!$G86, SampleData!$G86, "ND")</f>
+        <f>IF(SampleData!$H86, SampleData!$H86, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E113" s="21">
@@ -3958,11 +3869,11 @@
         <v>Spiromesifen</v>
       </c>
       <c r="C114" s="40" t="str">
-        <f>IF(SampleData!$F87, SampleData!$F87, "ND")</f>
+        <f>IF(SampleData!$G87, SampleData!$G87, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D114" s="40" t="str">
-        <f>IF(SampleData!$G87, SampleData!$G87, "ND")</f>
+        <f>IF(SampleData!$H87, SampleData!$H87, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E114" s="21">
@@ -3984,11 +3895,11 @@
         <v>Spirotetramat</v>
       </c>
       <c r="C115" s="40" t="str">
-        <f>IF(SampleData!$F88, SampleData!$F88, "ND")</f>
+        <f>IF(SampleData!$G88, SampleData!$G88, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D115" s="40" t="str">
-        <f>IF(SampleData!$G88, SampleData!$G88, "ND")</f>
+        <f>IF(SampleData!$H88, SampleData!$H88, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E115" s="21">
@@ -4010,11 +3921,11 @@
         <v>Spiroxamine</v>
       </c>
       <c r="C116" s="40" t="str">
-        <f>IF(SampleData!$F89, SampleData!$F89, "ND")</f>
+        <f>IF(SampleData!$G89, SampleData!$G89, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D116" s="40" t="str">
-        <f>IF(SampleData!$G89, SampleData!$G89, "ND")</f>
+        <f>IF(SampleData!$H89, SampleData!$H89, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E116" s="21">
@@ -4036,11 +3947,11 @@
         <v>Tebuconazole</v>
       </c>
       <c r="C117" s="40" t="str">
-        <f>IF(SampleData!$F90, SampleData!$F90, "ND")</f>
+        <f>IF(SampleData!$G90, SampleData!$G90, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D117" s="40" t="str">
-        <f>IF(SampleData!$G90, SampleData!$G90, "ND")</f>
+        <f>IF(SampleData!$H90, SampleData!$H90, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E117" s="21">
@@ -4062,11 +3973,11 @@
         <v>Tebufenozide</v>
       </c>
       <c r="C118" s="40" t="str">
-        <f>IF(SampleData!$F91, SampleData!$F91, "ND")</f>
+        <f>IF(SampleData!$G91, SampleData!$G91, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D118" s="40" t="str">
-        <f>IF(SampleData!$G91, SampleData!$G91, "ND")</f>
+        <f>IF(SampleData!$H91, SampleData!$H91, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E118" s="21">
@@ -4088,11 +3999,11 @@
         <v>Teflubenzuron</v>
       </c>
       <c r="C119" s="40" t="str">
-        <f>IF(SampleData!$F92, SampleData!$F92, "ND")</f>
+        <f>IF(SampleData!$G92, SampleData!$G92, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D119" s="40" t="str">
-        <f>IF(SampleData!$G92, SampleData!$G92, "ND")</f>
+        <f>IF(SampleData!$H92, SampleData!$H92, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E119" s="21">
@@ -4114,11 +4025,11 @@
         <v>Tetrachlorvinphos</v>
       </c>
       <c r="C120" s="40" t="str">
-        <f>IF(SampleData!$F93, SampleData!$F93, "ND")</f>
+        <f>IF(SampleData!$G93, SampleData!$G93, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D120" s="40" t="str">
-        <f>IF(SampleData!$G93, SampleData!$G93, "ND")</f>
+        <f>IF(SampleData!$H93, SampleData!$H93, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E120" s="21">
@@ -4140,11 +4051,11 @@
         <v>Tetramethrin</v>
       </c>
       <c r="C121" s="40" t="str">
-        <f>IF(SampleData!$F94, SampleData!$F94, "ND")</f>
+        <f>IF(SampleData!$G94, SampleData!$G94, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D121" s="40" t="str">
-        <f>IF(SampleData!$G94, SampleData!$G94, "ND")</f>
+        <f>IF(SampleData!$H94, SampleData!$H94, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E121" s="21">
@@ -4166,11 +4077,11 @@
         <v>Thiacloprid</v>
       </c>
       <c r="C122" s="40" t="str">
-        <f>IF(SampleData!$F95, SampleData!$F95, "ND")</f>
+        <f>IF(SampleData!$G95, SampleData!$G95, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D122" s="40" t="str">
-        <f>IF(SampleData!$G95, SampleData!$G95, "ND")</f>
+        <f>IF(SampleData!$H95, SampleData!$H95, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E122" s="21">
@@ -4192,11 +4103,11 @@
         <v>Thiamethoxam</v>
       </c>
       <c r="C123" s="40" t="str">
-        <f>IF(SampleData!$F96, SampleData!$F96, "ND")</f>
+        <f>IF(SampleData!$G96, SampleData!$G96, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D123" s="40" t="str">
-        <f>IF(SampleData!$G96, SampleData!$G96, "ND")</f>
+        <f>IF(SampleData!$H96, SampleData!$H96, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E123" s="21">
@@ -4218,11 +4129,11 @@
         <v>Thiophanate-methyl</v>
       </c>
       <c r="C124" s="40" t="str">
-        <f>IF(SampleData!$F97, SampleData!$F97, "ND")</f>
+        <f>IF(SampleData!$G97, SampleData!$G97, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D124" s="40" t="str">
-        <f>IF(SampleData!$G97, SampleData!$G97, "ND")</f>
+        <f>IF(SampleData!$H97, SampleData!$H97, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E124" s="21">
@@ -4244,11 +4155,11 @@
         <v>Trifloxystrobin</v>
       </c>
       <c r="C125" s="40" t="str">
-        <f>IF(SampleData!$F98, SampleData!$F98, "ND")</f>
+        <f>IF(SampleData!$G98, SampleData!$G98, "ND")</f>
         <v>ND</v>
       </c>
       <c r="D125" s="40" t="str">
-        <f>IF(SampleData!$G98, SampleData!$G98, "ND")</f>
+        <f>IF(SampleData!$H98, SampleData!$H98, "ND")</f>
         <v>ND</v>
       </c>
       <c r="E125" s="21">
@@ -4360,22 +4271,22 @@
     <row r="137" spans="1:6" ht="12" customHeight="1"/>
     <row r="138" spans="1:6" ht="12" customHeight="1"/>
     <row r="139" spans="1:6" ht="15" customHeight="1">
-      <c r="A139" s="38" t="s">
+      <c r="A139" s="38"/>
+      <c r="B139" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="16"/>
       <c r="C139" s="16"/>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="E139" s="16"/>
+      <c r="E139" s="46"/>
       <c r="F139" s="16"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
-      <c r="A140" s="38" t="s">
+      <c r="A140" s="38"/>
+      <c r="B140" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B140" s="16"/>
       <c r="D140" s="16" t="s">
         <v>150</v>
       </c>
@@ -4426,7 +4337,6 @@
 www.mblabs.com&amp;R&amp;"CMU Concrete Roman,Regular"&amp;10Mail: PO Box 2103
 Sidney, B.C, V8L 356</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4438,7 +4348,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4664,11 +4574,15 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:4">
@@ -4686,10 +4600,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4697,9 +4611,10 @@
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>130</v>
@@ -4713,14 +4628,17 @@
       <c r="E1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4736,10 +4654,11 @@
       <c r="E2" s="7">
         <v>145</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4755,10 +4674,11 @@
       <c r="E3" s="7">
         <v>45</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4774,10 +4694,11 @@
       <c r="E4" s="7">
         <v>65.7</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4793,10 +4714,11 @@
       <c r="E5" s="7">
         <v>15.2</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4812,10 +4734,11 @@
       <c r="E6" s="7">
         <v>128</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4831,10 +4754,11 @@
       <c r="E7" s="7">
         <v>92.1</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4850,10 +4774,11 @@
       <c r="E8" s="7">
         <v>480</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4869,10 +4794,11 @@
       <c r="E9" s="7">
         <v>8.9</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4888,10 +4814,11 @@
       <c r="E10" s="7">
         <v>9.06</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4907,10 +4834,11 @@
       <c r="E11" s="7">
         <v>8.5</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4926,10 +4854,11 @@
       <c r="E12" s="7">
         <v>23</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4945,10 +4874,11 @@
       <c r="E13" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4964,10 +4894,11 @@
       <c r="E14" s="7">
         <v>14.4</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4983,10 +4914,11 @@
       <c r="E15" s="7">
         <v>24</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5002,10 +4934,11 @@
       <c r="E16" s="7">
         <v>9.5</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5021,10 +4954,11 @@
       <c r="E17" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5040,10 +4974,11 @@
       <c r="E18" s="7">
         <v>101</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5059,10 +4994,11 @@
       <c r="E19" s="7">
         <v>21.4</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5078,10 +5014,11 @@
       <c r="E20" s="7">
         <v>9.6</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5097,10 +5034,11 @@
       <c r="E21" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5116,10 +5054,11 @@
       <c r="E22" s="7">
         <v>8.9</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5135,10 +5074,11 @@
       <c r="E23" s="7">
         <v>7.5</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5154,10 +5094,11 @@
       <c r="E24" s="7">
         <v>451</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5173,10 +5114,11 @@
       <c r="E25" s="7">
         <v>133</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5192,10 +5134,11 @@
       <c r="E26" s="7">
         <v>9.81</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5211,10 +5154,11 @@
       <c r="E27" s="7">
         <v>224</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5230,10 +5174,11 @@
       <c r="E28" s="7">
         <v>52</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5249,10 +5194,11 @@
       <c r="E29" s="7">
         <v>17</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5268,10 +5214,11 @@
       <c r="E30" s="7">
         <v>23</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5287,10 +5234,11 @@
       <c r="E31" s="7">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5306,10 +5254,11 @@
       <c r="E32" s="7">
         <v>11.2</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5325,10 +5274,11 @@
       <c r="E33" s="7">
         <v>4.8</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5344,10 +5294,11 @@
       <c r="E34" s="7">
         <v>25</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5363,10 +5314,11 @@
       <c r="E35" s="7">
         <v>75</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5382,10 +5334,11 @@
       <c r="E36" s="7">
         <v>12.5</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5401,10 +5354,11 @@
       <c r="E37" s="7">
         <v>12.5</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5420,10 +5374,11 @@
       <c r="E38" s="7">
         <v>9.4</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5439,10 +5394,11 @@
       <c r="E39" s="7">
         <v>26.8</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5458,10 +5414,11 @@
       <c r="E40" s="7">
         <v>17</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5477,10 +5434,11 @@
       <c r="E41" s="7">
         <v>65</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5496,10 +5454,11 @@
       <c r="E42" s="7">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5515,10 +5474,11 @@
       <c r="E43" s="7">
         <v>27.7</v>
       </c>
-      <c r="F43" s="15"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5534,10 +5494,11 @@
       <c r="E44" s="7">
         <v>8.9</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5553,10 +5514,11 @@
       <c r="E45" s="7">
         <v>9.5</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5572,10 +5534,11 @@
       <c r="E46" s="7">
         <v>152</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5591,10 +5554,11 @@
       <c r="E47" s="7">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F47" s="15"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5610,10 +5574,11 @@
       <c r="E48" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5629,10 +5594,11 @@
       <c r="E49" s="7">
         <v>9.4</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5648,10 +5614,11 @@
       <c r="E50" s="7">
         <v>7.6</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5667,10 +5634,11 @@
       <c r="E51" s="7">
         <v>17.2</v>
       </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5686,10 +5654,11 @@
       <c r="E52" s="7">
         <v>8.9</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5705,10 +5674,11 @@
       <c r="E53" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5724,10 +5694,11 @@
       <c r="E54" s="7">
         <v>402</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5743,10 +5714,11 @@
       <c r="E55" s="7">
         <v>125</v>
       </c>
-      <c r="F55" s="15"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5762,10 +5734,11 @@
       <c r="E56" s="7">
         <v>14.5</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5781,10 +5754,11 @@
       <c r="E57" s="7">
         <v>8.9</v>
       </c>
-      <c r="F57" s="15"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5800,10 +5774,11 @@
       <c r="E58" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F58" s="15"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5819,10 +5794,11 @@
       <c r="E59" s="7">
         <v>9.5</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5838,10 +5814,11 @@
       <c r="E60" s="7">
         <v>17.5</v>
       </c>
-      <c r="F60" s="15"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5857,10 +5834,11 @@
       <c r="E61" s="7">
         <v>24</v>
       </c>
-      <c r="F61" s="15"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5876,10 +5854,11 @@
       <c r="E62" s="7">
         <v>62.5</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5895,10 +5874,11 @@
       <c r="E63" s="7">
         <v>17.600000000000001</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5914,10 +5894,11 @@
       <c r="E64" s="7">
         <v>264</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5933,10 +5914,11 @@
       <c r="E65" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5952,10 +5934,11 @@
       <c r="E66" s="7">
         <v>18.7</v>
       </c>
-      <c r="F66" s="15"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5971,10 +5954,11 @@
       <c r="E67" s="7">
         <v>20.2</v>
       </c>
-      <c r="F67" s="15"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5990,10 +5974,11 @@
       <c r="E68" s="7">
         <v>65.7</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6009,10 +5994,11 @@
       <c r="E69" s="7">
         <v>9</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6028,10 +6014,11 @@
       <c r="E70" s="7">
         <v>89.5</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6047,10 +6034,11 @@
       <c r="E71" s="7">
         <v>113</v>
       </c>
-      <c r="F71" s="15"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6066,10 +6054,11 @@
       <c r="E72" s="7">
         <v>26</v>
       </c>
-      <c r="F72" s="15"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6085,10 +6074,11 @@
       <c r="E73" s="7">
         <v>118</v>
       </c>
-      <c r="F73" s="15"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6104,10 +6094,11 @@
       <c r="E74" s="7">
         <v>9.1</v>
       </c>
-      <c r="F74" s="15"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6123,10 +6114,11 @@
       <c r="E75" s="7">
         <v>44.6</v>
       </c>
-      <c r="F75" s="15"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6142,10 +6134,11 @@
       <c r="E76" s="7">
         <v>13.2</v>
       </c>
-      <c r="F76" s="15"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6161,10 +6154,11 @@
       <c r="E77" s="7">
         <v>9</v>
       </c>
-      <c r="F77" s="15"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6180,10 +6174,11 @@
       <c r="E78" s="7">
         <v>8.9</v>
       </c>
-      <c r="F78" s="15"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6199,10 +6194,11 @@
       <c r="E79" s="7">
         <v>49.5</v>
       </c>
-      <c r="F79" s="15"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6218,10 +6214,11 @@
       <c r="E80" s="7">
         <v>123</v>
       </c>
-      <c r="F80" s="15"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6237,10 +6234,11 @@
       <c r="E81" s="7">
         <v>19</v>
       </c>
-      <c r="F81" s="15"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6256,10 +6254,11 @@
       <c r="E82" s="7">
         <v>50</v>
       </c>
-      <c r="F82" s="15"/>
+      <c r="F82" s="7"/>
       <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6275,10 +6274,11 @@
       <c r="E83" s="7">
         <v>45</v>
       </c>
-      <c r="F83" s="15"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6294,10 +6294,11 @@
       <c r="E84" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F84" s="15"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6313,10 +6314,11 @@
       <c r="E85" s="7">
         <v>8.1</v>
       </c>
-      <c r="F85" s="15"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6332,10 +6334,11 @@
       <c r="E86" s="7">
         <v>40.6</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="7"/>
       <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6351,10 +6354,11 @@
       <c r="E87" s="7">
         <v>16.2</v>
       </c>
-      <c r="F87" s="15"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6370,10 +6374,11 @@
       <c r="E88" s="7">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F88" s="15"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6389,10 +6394,11 @@
       <c r="E89" s="7">
         <v>18</v>
       </c>
-      <c r="F89" s="15"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6408,10 +6414,11 @@
       <c r="E90" s="7">
         <v>8.9</v>
       </c>
-      <c r="F90" s="15"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6427,10 +6434,11 @@
       <c r="E91" s="7">
         <v>9.6</v>
       </c>
-      <c r="F91" s="15"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6446,10 +6454,11 @@
       <c r="E92" s="7">
         <v>19.5</v>
       </c>
-      <c r="F92" s="15"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6465,10 +6474,11 @@
       <c r="E93" s="7">
         <v>9.77</v>
       </c>
-      <c r="F93" s="15"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6484,10 +6494,11 @@
       <c r="E94" s="7">
         <v>180</v>
       </c>
-      <c r="F94" s="15"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6503,10 +6514,11 @@
       <c r="E95" s="7">
         <v>9.4</v>
       </c>
-      <c r="F95" s="15"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6522,10 +6534,11 @@
       <c r="E96" s="7">
         <v>9.9</v>
       </c>
-      <c r="F96" s="15"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6541,10 +6554,11 @@
       <c r="E97" s="7">
         <v>16.5</v>
       </c>
-      <c r="F97" s="15"/>
+      <c r="F97" s="7"/>
       <c r="G97" s="15"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6560,10 +6574,11 @@
       <c r="E98" s="7">
         <v>8.5</v>
       </c>
-      <c r="F98" s="15"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6579,8 +6594,9 @@
       <c r="E99" s="11">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6596,8 +6612,9 @@
       <c r="E100" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -6613,8 +6630,9 @@
       <c r="E101" s="11">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6630,8 +6648,9 @@
       <c r="E102" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -6647,8 +6666,9 @@
       <c r="E103" s="11">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6664,6 +6684,7 @@
       <c r="E104" s="11">
         <v>0.03</v>
       </c>
+      <c r="F104" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
